--- a/biology/Histoire de la zoologie et de la botanique/Auguste_Alphonse_Derbès/Auguste_Alphonse_Derbès.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Auguste_Alphonse_Derbès/Auguste_Alphonse_Derbès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auguste_Alphonse_Derb%C3%A8s</t>
+          <t>Auguste_Alphonse_Derbès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auguste Alphonse Derbès (8 mai 1818, Marseille - 27 janvier 1894, Marseille) est un zoologiste et botaniste français, professeur de botanique générale à la Faculté des sciences de Marseille, qui étudie la reproduction des oursins et des algues[1].
-Derbès est le premier scientifique à observer la fertilisation des œufs de l'oursin dont il détaille le processus de formation de l'enveloppe autour du gamète pendant la reproduction ; processus maintenant connu pour être associé au cation Ca2+[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auguste Alphonse Derbès (8 mai 1818, Marseille - 27 janvier 1894, Marseille) est un zoologiste et botaniste français, professeur de botanique générale à la Faculté des sciences de Marseille, qui étudie la reproduction des oursins et des algues.
+Derbès est le premier scientifique à observer la fertilisation des œufs de l'oursin dont il détaille le processus de formation de l'enveloppe autour du gamète pendant la reproduction ; processus maintenant connu pour être associé au cation Ca2+,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auguste_Alphonse_Derb%C3%A8s</t>
+          <t>Auguste_Alphonse_Derbès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Auguste Derbès et Antoine Joseph Jean Solier, Mémoire sur quelques points de la physiologie des algues (manuscrit, 2 tomes dont 1 atlas de 38 pl.), 1847 (lire en ligne [PDF]).</t>
         </is>
